--- a/5.Project/1.data_gen/output/user.xlsx
+++ b/5.Project/1.data_gen/output/user.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,10 +461,15 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Address_GPSCoord</t>
+          <t>Address</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Coord</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Phone_number</t>
         </is>
@@ -473,70 +478,80 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>45e8a2ae-dc09-4964-a5b3-bc2673cfcb99</t>
+          <t>d0d892f8-8d5e-4513-8f1e-a4f68a72612f</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>창지윤</t>
+          <t>어시우</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2017-09-09</t>
+          <t>2007-06-04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>전북특별자치도 창원시 마산회원구 머내길 56    좌표 [북위: 38° 31'15" 동경: 131° 23'02"]</t>
+          <t>강원특별자치도 화성시 무농정로15번길 132</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>010-7869-2713</t>
+          <t>Lat: 40.9577° Lng: 129.9354°</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>010-0951-2923</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>23905397-84b8-4595-9f5f-d75b2bae5acc</t>
+          <t>54a79aaa-3a3f-48a2-a83b-b539cbee1334</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>하아영</t>
+          <t>성은찬</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2006-03-20</t>
+          <t>2009-02-19</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>경상남도 의왕시 태수로26번길 284    좌표 [북위: 35° 56'58" 동경: 126° 16'26"]</t>
+          <t>전북특별자치도 김제시 장암길 230</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>010-4506-0415</t>
+          <t>Lat: 34.3830° Lng: 124.9697°</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>010-6137-2862</t>
         </is>
       </c>
     </row>
